--- a/Online.xlsx
+++ b/Online.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AB068-EF23-4631-A981-73CB71EF4743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C141826-44E1-46A9-AE3E-50C26139BA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,17 +337,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Online.xlsx
+++ b/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C141826-44E1-46A9-AE3E-50C26139BA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739F5F7D-2442-4BAF-9806-72CEFB12A1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="1395" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -341,14 +341,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Online.xlsx
+++ b/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739F5F7D-2442-4BAF-9806-72CEFB12A1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3761DB-D161-4B49-B172-485306915D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1395" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="4650" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Online.xlsx
+++ b/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3761DB-D161-4B49-B172-485306915D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE49B4B-101F-4981-9ADB-0B3A4C370422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="4650" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="1395" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -341,14 +341,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/Online.xlsx
+++ b/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE49B4B-101F-4981-9ADB-0B3A4C370422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA374E3-C42C-4058-863B-7D7334278408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="1395" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>666</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/Online.xlsx
+++ b/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA374E3-C42C-4058-863B-7D7334278408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96818292-4650-40AA-A2F1-FB97E5F96404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="1395" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,14 +341,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>777</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Online.xlsx
+++ b/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96818292-4650-40AA-A2F1-FB97E5F96404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E8FE9-BD39-4556-9EA9-2C5ADFAFD40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="1395" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,14 +341,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Online.xlsx
+++ b/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41E8FE9-BD39-4556-9EA9-2C5ADFAFD40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0445F349-0A0F-4BA0-B2DB-8AAE4D054942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="1395" windowWidth="21480" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,14 +341,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
